--- a/AI Governance Compliance for EN repos.xlsx
+++ b/AI Governance Compliance for EN repos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>AI Governance - Stage 1</t>
   </si>
@@ -40,13 +40,13 @@
     <t>Meeting minutes</t>
   </si>
   <si>
-    <t>Notification date</t>
+    <t>1rst Email Notify</t>
   </si>
   <si>
     <t>Project lead</t>
   </si>
   <si>
-    <t>comments</t>
+    <t>Comments</t>
   </si>
   <si>
     <r>
@@ -103,6 +103,9 @@
       </rPr>
       <t>https://github.com/Enterprise-Neurosystem/APIary</t>
     </r>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <r>
@@ -229,9 +232,6 @@
   </si>
   <si>
     <t xml:space="preserve">no </t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <r>
@@ -406,7 +406,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +441,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
     <fill>
@@ -557,8 +563,8 @@
     <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -570,8 +576,8 @@
     <xf borderId="4" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -597,16 +603,19 @@
     <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -626,9 +635,6 @@
     </xf>
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -942,7 +948,9 @@
       <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="18">
+        <v>44698.0</v>
+      </c>
       <c r="J3" s="19" t="s">
         <v>17</v>
       </c>
@@ -973,13 +981,17 @@
       <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="18">
+        <v>44698.0</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11">
         <v>44676.0</v>
@@ -988,29 +1000,31 @@
         <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="s">
         <v>25</v>
       </c>
+      <c r="I5" s="18">
+        <v>44698.0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11">
         <v>44663.0</v>
@@ -1019,29 +1033,31 @@
         <v>13</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>44698.0</v>
+      </c>
       <c r="J6" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11">
         <v>44624.0</v>
@@ -1050,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>15</v>
@@ -1064,15 +1080,17 @@
       <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>44698.0</v>
+      </c>
       <c r="J7" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="11">
         <v>44673.0</v>
@@ -1084,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>15</v>
@@ -1095,9 +1113,9 @@
       <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
-        <v>37</v>
+      <c r="I8" s="34"/>
+      <c r="J8" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="K8" s="20"/>
     </row>
@@ -1105,30 +1123,30 @@
       <c r="A9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="35">
         <v>44634.0</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="38" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
-        <v>37</v>
+      <c r="I9" s="34"/>
+      <c r="J9" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="K9" s="20"/>
     </row>
@@ -1136,7 +1154,7 @@
       <c r="A10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="35">
         <v>44593.0</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -1148,29 +1166,31 @@
       <c r="E10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="39" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18">
+        <v>44698.0</v>
+      </c>
       <c r="J10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="41">
         <v>44628.0</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="42" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -1186,9 +1206,11 @@
         <v>15</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="18">
+        <v>44698.0</v>
+      </c>
       <c r="J11" s="19" t="s">
         <v>45</v>
       </c>

--- a/AI Governance Compliance for EN repos.xlsx
+++ b/AI Governance Compliance for EN repos.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>AI Governance - Stage 1</t>
   </si>
@@ -75,7 +76,31 @@
     <t>active</t>
   </si>
   <si>
-    <t>Framework, Tools and Solutions for processing high-rate signal data such as acoustics, vibrations, etc. See the wiki for documentation.</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF24292F"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Framework, Tools and Solutions for processing high-rate signal data such as acoustics, vibrations, etc. See the </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF24292F"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>wiki</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF24292F"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> for documentation.</t>
+    </r>
   </si>
   <si>
     <t>no</t>
@@ -85,6 +110,9 @@
   </si>
   <si>
     <t>David Wood</t>
+  </si>
+  <si>
+    <t>Need team list, meeting date(s) and minutes</t>
   </si>
   <si>
     <r>
@@ -105,7 +133,61 @@
     </r>
   </si>
   <si>
-    <t>?</t>
+    <t>Repository for Documents and code pertaining to the Bee Environmental Project.  The goal of the Gov/REN team is to coordinate engagement with the Federal Government and Educational Institutions.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Dennis O'Connel - APIary co-lead - Yahoo! - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>denniscoconnell@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve"> Erik Erlandson - APIary co-lead - Red Hat - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>eerlands@redhat.com</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve"> Ryan Coffee - Stanford/SLAC Leo Hoarty - Sweet Vinyl Bill Wright - Red Hat</t>
+    </r>
+  </si>
+  <si>
+    <t>bi-weekly on thursdays at noon</t>
+  </si>
+  <si>
+    <t>denniscoconnell@gmail.com or eerlands@redhat.com</t>
+  </si>
+  <si>
+    <t>Dennis O'Connel &amp; Erik Erlandson</t>
+  </si>
+  <si>
+    <t>up to date</t>
   </si>
   <si>
     <r>
@@ -184,6 +266,9 @@
     <t>Bill Wright</t>
   </si>
   <si>
+    <t>still missing team list</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -203,10 +288,19 @@
     </r>
   </si>
   <si>
-    <t>Documentation for Government and Research Education Network</t>
+    <t>Repository for Ducments pertianing to the Government and Research Education Network track.  The goal of the Gov/REN team is to coordinate engagement with the Federal Government and Educational Institutions</t>
   </si>
   <si>
-    <t>Ryan Coffee?</t>
+    <t>Ryan Coffee - Gov/RENB lead - Stanford/SLAC - coffee@slac.stanford.edu Omar Quijano - Stanford/SLAC, Bill Wright - Red Hat Ben Cushing - Red Hat Surya Pathak - Red Hat John Overton - Kove</t>
+  </si>
+  <si>
+    <t>No firm meeting date.  Meetings have been ad hoc thus far determined in response to the US Request for Information</t>
+  </si>
+  <si>
+    <t>coffee@slac.standford.edu</t>
+  </si>
+  <si>
+    <t>Ryan Coffee</t>
   </si>
   <si>
     <r>
@@ -234,10 +328,17 @@
     <t xml:space="preserve">no </t>
   </si>
   <si>
+    <t>???? Contributors are Josh Purcell, Dinesh Verma and Shirley336</t>
+  </si>
+  <si>
+    <t>no one has come forth as owner</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -246,6 +347,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <strike/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -262,10 +364,14 @@
     <t>no - merged to sd-catalog</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <strike/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
@@ -274,11 +380,15 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <strike/>
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
       <t>- https://github.com/Enterprise-Neurosystem/Secure-AI-Connectivity-Fabric</t>
     </r>
+  </si>
+  <si>
+    <t>deleted</t>
   </si>
   <si>
     <t>This track is for determining how an AI system can access and manage data originating in a secure environment, subject to governance constraints, access/security issues, and multiparty sharing considerations. Integration, middleware, messaging and networking technologies will be discussed.</t>
@@ -290,13 +400,16 @@
     <t>Sanjay Aiyagari</t>
   </si>
   <si>
+    <t>repo was removed by owner.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">Secure_AI_Connectivity-Fabric </t>
+      <t xml:space="preserve">Secure-AI-Connectivity-Fabric </t>
     </r>
     <r>
       <rPr>
@@ -309,6 +422,45 @@
   <si>
     <t>Meets alternate Tuesdays at 1pm Pacific Time</t>
   </si>
+  <si>
+    <t>Still need team list and main contact email</t>
+  </si>
+  <si>
+    <t>Repository for Documents and code pertaining to the Bee Environmental Project.</t>
+  </si>
+  <si>
+    <t>The goal of the Gov/REN team is to coordinate engagement with the Federal Government and Educational Institutions.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Ryan Coffee - Gov/RENB lead - Stanford/SLAC - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>coffee@slac.stanford.edu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve"> Omar Quijano - Stanford/SLAC</t>
+    </r>
+  </si>
+  <si>
+    <t>Bill Wright - Red Hat Ben Cushing - Red Hat Surya Pathak - Red Hat John Overton - Kove</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +470,7 @@
     <numFmt numFmtId="164" formatCode="mmmm d, yyyy"/>
     <numFmt numFmtId="165" formatCode="mmm d, yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -381,8 +533,20 @@
     </font>
     <font>
       <u/>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10.0"/>
       <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF24292F"/>
+      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -402,11 +566,52 @@
     </font>
     <font>
       <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <color rgb="FF24292F"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <strike/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <color rgb="FF24292F"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FFC9D1D9"/>
+      <name val="-apple-system"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,14 +620,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -435,12 +640,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -459,6 +658,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE69138"/>
         <bgColor rgb="FFE69138"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D1117"/>
+        <bgColor rgb="FF0D1117"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -549,7 +760,7 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -569,23 +780,34 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="4" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -600,32 +822,72 @@
     <xf borderId="4" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="4" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -636,11 +898,21 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="23" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,6 +923,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -884,9 +1160,9 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
@@ -954,11 +1230,13 @@
       <c r="J3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11">
         <v>44693.0</v>
@@ -967,16 +1245,16 @@
         <v>13</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>15</v>
+      <c r="E4" s="23" t="s">
+        <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>15</v>
+      <c r="F4" s="24" t="s">
+        <v>22</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
+      <c r="G4" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>15</v>
@@ -984,14 +1262,16 @@
       <c r="I4" s="18">
         <v>44698.0</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>19</v>
+      <c r="J4" s="25" t="s">
+        <v>24</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>20</v>
+      <c r="A5" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="11">
         <v>44676.0</v>
@@ -999,32 +1279,34 @@
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>21</v>
+      <c r="D5" s="27" t="s">
+        <v>27</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
+      <c r="E5" s="28" t="s">
+        <v>28</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>23</v>
+      <c r="F5" s="29" t="s">
+        <v>29</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>24</v>
+      <c r="G5" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I5" s="18">
         <v>44698.0</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="s">
-        <v>27</v>
+      <c r="A6" s="30" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="11">
         <v>44663.0</v>
@@ -1032,32 +1314,34 @@
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>28</v>
+      <c r="D6" s="31" t="s">
+        <v>34</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>29</v>
+      <c r="F6" s="33" t="s">
+        <v>35</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>30</v>
+      <c r="G6" s="34" t="s">
+        <v>36</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>15</v>
+      <c r="H6" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="I6" s="18">
         <v>44698.0</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="32" t="s">
-        <v>32</v>
+      <c r="A7" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="11">
         <v>44624.0</v>
@@ -1065,17 +1349,17 @@
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>33</v>
+      <c r="D7" s="36" t="s">
+        <v>40</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>15</v>
+      <c r="E7" s="37" t="s">
+        <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>15</v>
+      <c r="F7" s="37" t="s">
+        <v>42</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>15</v>
+      <c r="G7" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>15</v>
@@ -1084,13 +1368,15 @@
         <v>44698.0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
-        <v>35</v>
+      <c r="A8" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="11">
         <v>44673.0</v>
@@ -1102,10 +1388,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>15</v>
@@ -1113,114 +1399,152 @@
       <c r="H8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="23" t="s">
-        <v>19</v>
+      <c r="I8" s="40">
+        <v>44698.0</v>
       </c>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
-        <v>38</v>
+      <c r="J8" s="41" t="s">
+        <v>48</v>
       </c>
-      <c r="B9" s="35">
+      <c r="K8" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
+      <c r="A9" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="44">
         <v>44634.0</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>39</v>
+      <c r="C9" s="45" t="s">
+        <v>51</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>40</v>
+      <c r="D9" s="46" t="s">
+        <v>52</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>41</v>
+      <c r="F9" s="48" t="s">
+        <v>53</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="38" t="s">
-        <v>41</v>
+      <c r="H9" s="48" t="s">
+        <v>53</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="23" t="s">
-        <v>19</v>
+      <c r="I9" s="50">
+        <v>44698.0</v>
       </c>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" ht="90.0" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>42</v>
+      <c r="J9" s="51" t="s">
+        <v>54</v>
       </c>
-      <c r="B10" s="35">
+      <c r="K9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+    </row>
+    <row r="10" ht="90.0" hidden="1" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="44">
         <v>44593.0</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="50">
+        <v>44698.0</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="58">
+        <v>44628.0</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="18">
-        <v>44698.0</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="41">
-        <v>44628.0</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>43</v>
+      <c r="D11" s="60" t="s">
+        <v>57</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>47</v>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I11" s="18">
         <v>44698.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1231,7 +1555,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="44"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1242,7 +1566,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1253,7 +1577,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="43"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1264,7 +1588,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1275,7 +1599,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -11084,17 +11408,59 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
     <hyperlink r:id="rId2" ref="D3"/>
     <hyperlink r:id="rId3" ref="G3"/>
     <hyperlink r:id="rId4" ref="A4"/>
-    <hyperlink r:id="rId5" ref="A5"/>
-    <hyperlink r:id="rId6" ref="E5"/>
-    <hyperlink r:id="rId7" ref="G6"/>
+    <hyperlink r:id="rId5" ref="E4"/>
+    <hyperlink r:id="rId6" ref="A5"/>
+    <hyperlink r:id="rId7" ref="E5"/>
+    <hyperlink r:id="rId8" ref="G6"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="64"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A5"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>